--- a/contract_data.xlsx
+++ b/contract_data.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\rocke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30ae142562e1ddc/보험/한화라이프랩/자동화 프로그램 모음/Convention-Summer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EA5117-5F52-414D-896E-8971E2921455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{05EA5117-5F52-414D-896E-8971E2921455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4325724B-4D48-4A1B-839A-7BC792524636}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="4020" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="입력란" sheetId="1" r:id="rId1"/>
+    <sheet name="보험사 목록" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>계약일자</t>
   </si>
@@ -38,6 +39,38 @@
   </si>
   <si>
     <t>쉐어율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험사 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화생명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타생보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화손해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성화재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥국화재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB손해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타손보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +557,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1449,5 +1482,76 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D031F30F-43B0-483F-8F85-3539DDD4A97A}">
+          <x14:formula1>
+            <xm:f>'보험사 목록'!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39A5FF7-C5F6-4550-96F9-94D05C95C88B}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/contract_data.xlsx
+++ b/contract_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30ae142562e1ddc/보험/한화라이프랩/자동화 프로그램 모음/Convention-Summer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{05EA5117-5F52-414D-896E-8971E2921455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CBED07-9B60-445F-9008-71667F29CE2B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{05EA5117-5F52-414D-896E-8971E2921455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CB27534-CB82-412E-908C-5D2DB4A5D763}"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="390" windowWidth="21600" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="입력란" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>계약일자</t>
   </si>
@@ -125,15 +125,6 @@
     <t>흥국화재</t>
   </si>
   <si>
-    <t>KB손해</t>
-  </si>
-  <si>
-    <t>기타생보</t>
-  </si>
-  <si>
-    <t>한화손해</t>
-  </si>
-  <si>
     <t>H종신(무)</t>
   </si>
   <si>
@@ -180,6 +171,18 @@
   </si>
   <si>
     <t>무배당흥국화재유병력자실손의료보험(25.04)</t>
+  </si>
+  <si>
+    <t>라이나생명</t>
+  </si>
+  <si>
+    <t>한화손보</t>
+  </si>
+  <si>
+    <t>KB손보</t>
+  </si>
+  <si>
+    <t>DB손보</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="###,###,###,###&quot;원&quot;"/>
+    <numFmt numFmtId="176" formatCode="###,###,###,###&quot;원&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -314,25 +317,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +649,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,7 +690,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <v>5</v>
@@ -705,10 +708,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -747,10 +750,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9">
         <v>20</v>
@@ -768,10 +771,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="9">
         <v>15</v>
@@ -789,10 +792,10 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9">
         <v>20</v>
@@ -810,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -831,10 +834,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9">
         <v>20</v>
@@ -852,10 +855,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9">
         <v>5</v>
@@ -876,7 +879,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9">
         <v>15</v>
@@ -894,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>20</v>
@@ -915,10 +918,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9">
         <v>20</v>
@@ -939,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="9">
         <v>20</v>
@@ -957,10 +960,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
@@ -978,10 +981,10 @@
         <v>24</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="9">
         <v>20</v>
@@ -999,10 +1002,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="9">
         <v>5</v>
@@ -1020,10 +1023,10 @@
         <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>20</v>
@@ -1041,10 +1044,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9">
         <v>10</v>
@@ -1062,10 +1065,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9">
         <v>20</v>
@@ -1083,10 +1086,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="9">
         <v>20</v>
@@ -1104,10 +1107,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
